--- a/case study/Interactive Turkey Map - Migration/data/2018-2019_data.xlsx
+++ b/case study/Interactive Turkey Map - Migration/data/2018-2019_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="25">
   <si>
     <t>Kos</t>
   </si>
@@ -93,19 +93,13 @@
   <si>
     <t>Year</t>
   </si>
-  <si>
-    <t xml:space="preserve">Lat </t>
-  </si>
-  <si>
-    <t>Lng</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +136,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -166,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,41 +483,31 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2">
         <v>107</v>
       </c>
-      <c r="D2">
-        <v>139</v>
-      </c>
       <c r="E2">
-        <v>1061</v>
+        <v>991</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2019</v>
-      </c>
-      <c r="H2" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I2" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -532,29 +516,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>323</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>348</v>
+        <v>556</v>
       </c>
       <c r="E3">
-        <v>1717</v>
+        <v>1642</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2019</v>
-      </c>
-      <c r="H3" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I3" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="N3" s="1"/>
@@ -563,32 +543,28 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
+        <v>379</v>
+      </c>
+      <c r="D4">
         <v>382</v>
       </c>
-      <c r="D4">
-        <v>266</v>
-      </c>
       <c r="E4">
-        <v>1247</v>
+        <v>3935</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2019</v>
-      </c>
-      <c r="H4" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I4" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="N4" s="1"/>
@@ -596,32 +572,28 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>354</v>
+        <v>876</v>
       </c>
       <c r="D5">
-        <v>347</v>
+        <v>1510</v>
       </c>
       <c r="E5">
-        <v>4068</v>
+        <v>6860</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5">
-        <v>2019</v>
-      </c>
-      <c r="H5" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I5" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="N5" s="1"/>
@@ -629,32 +601,28 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>670</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>1021</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>7119</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6">
-        <v>2019</v>
-      </c>
-      <c r="H6" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I6" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="N6" s="1"/>
@@ -662,25 +630,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>61</v>
+        <v>1187</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -690,29 +652,25 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="D8">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>990</v>
+        <v>944</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8">
-        <v>2019</v>
-      </c>
-      <c r="H8" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I8" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -721,138 +679,116 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E9">
-        <v>1741</v>
+        <v>1640</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9">
-        <v>2019</v>
-      </c>
-      <c r="H9" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I9" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>305</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="E10">
-        <v>1239</v>
+        <v>4238</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10">
-        <v>2019</v>
-      </c>
-      <c r="H10" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I10" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="D11">
-        <v>187</v>
+        <v>380</v>
       </c>
       <c r="E11">
-        <v>4295</v>
+        <v>7068</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11">
-        <v>2019</v>
-      </c>
-      <c r="H11" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I11" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>791</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>839</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>7260</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12">
-        <v>2019</v>
-      </c>
-      <c r="H12" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>89</v>
+        <v>1148</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -860,167 +796,141 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="D14">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="E14">
-        <v>936</v>
+        <v>807</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14">
-        <v>2019</v>
-      </c>
-      <c r="H14" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I14" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>418</v>
+        <v>257</v>
       </c>
       <c r="E15">
-        <v>1678</v>
+        <v>1548</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15">
-        <v>2019</v>
-      </c>
-      <c r="H15" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I15" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>172</v>
+        <v>538</v>
       </c>
       <c r="D16">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="E16">
-        <v>1213</v>
+        <v>4040</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16">
-        <v>2019</v>
-      </c>
-      <c r="H16" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I16" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>606</v>
+        <v>1402</v>
       </c>
       <c r="D17">
-        <v>820</v>
+        <v>515</v>
       </c>
       <c r="E17">
-        <v>4421</v>
+        <v>7105</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17">
-        <v>2019</v>
-      </c>
-      <c r="H17" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I17" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>878</v>
+        <v>170</v>
       </c>
       <c r="D18">
-        <v>1175</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>7318</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18">
-        <v>2019</v>
-      </c>
-      <c r="H18" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E19">
-        <v>71</v>
+        <v>1048</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>361</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E20">
         <v>1650</v>
@@ -1043,152 +953,126 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>2019</v>
-      </c>
-      <c r="H20" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I20" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>237</v>
+        <v>553</v>
       </c>
       <c r="D21">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="E21">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21">
-        <v>2019</v>
-      </c>
-      <c r="H21" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I21" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>158</v>
+        <v>418</v>
       </c>
       <c r="D22">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="E22">
-        <v>1104</v>
+        <v>3377</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22">
-        <v>2019</v>
-      </c>
-      <c r="H22" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I22" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>496</v>
+        <v>1835</v>
       </c>
       <c r="D23">
-        <v>713</v>
+        <v>1254</v>
       </c>
       <c r="E23">
-        <v>3969</v>
+        <v>7012</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23">
-        <v>2019</v>
-      </c>
-      <c r="H23" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I23" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="D24">
-        <v>759</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>7041</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24">
-        <v>2019</v>
-      </c>
-      <c r="H24" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I24" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>81</v>
+        <v>1098</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1196,167 +1080,141 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="E26">
-        <v>1979</v>
+        <v>1135</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="G26">
-        <v>2019</v>
-      </c>
-      <c r="H26" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I26" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="D27">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E27">
-        <v>2042</v>
+        <v>1691</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27">
-        <v>2019</v>
-      </c>
-      <c r="H27" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I27" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="D28">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="E28">
-        <v>1264</v>
+        <v>3358</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28">
-        <v>2019</v>
-      </c>
-      <c r="H28" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I28" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C29">
-        <v>824</v>
+        <v>1564</v>
       </c>
       <c r="D29">
-        <v>412</v>
+        <v>961</v>
       </c>
       <c r="E29">
-        <v>3587</v>
+        <v>9336</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
       <c r="G29">
-        <v>2019</v>
-      </c>
-      <c r="H29" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I29" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>504</v>
+        <v>272</v>
       </c>
       <c r="D30">
-        <v>1184</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>7037</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30">
-        <v>2019</v>
-      </c>
-      <c r="H30" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I30" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>13</v>
-      </c>
-      <c r="C31">
-        <v>318</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>116</v>
+        <v>1016</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
       </c>
       <c r="G31">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1364,167 +1222,141 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>359</v>
+        <v>152</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E32">
-        <v>2123</v>
+        <v>1173</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32">
-        <v>2019</v>
-      </c>
-      <c r="H32" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I32" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="D33">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="E33">
-        <v>2200</v>
+        <v>1940</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33">
-        <v>2019</v>
-      </c>
-      <c r="H33" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I33" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>256</v>
+        <v>822</v>
       </c>
       <c r="D34">
-        <v>181</v>
+        <v>333</v>
       </c>
       <c r="E34">
-        <v>1366</v>
+        <v>3836</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34">
-        <v>2019</v>
-      </c>
-      <c r="H34" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I34" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>465</v>
+        <v>1039</v>
       </c>
       <c r="D35">
-        <v>272</v>
+        <v>840</v>
       </c>
       <c r="E35">
-        <v>3918</v>
+        <v>9460</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35">
-        <v>2019</v>
-      </c>
-      <c r="H35" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I35" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>1622</v>
+        <v>150</v>
       </c>
       <c r="D36">
-        <v>750</v>
+        <v>71</v>
       </c>
       <c r="E36">
-        <v>7909</v>
+        <v>108</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36">
-        <v>2019</v>
-      </c>
-      <c r="H36" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I36" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E37">
-        <v>94</v>
+        <v>1042</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1532,167 +1364,141 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>599</v>
+        <v>390</v>
       </c>
       <c r="D38">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38">
-        <v>2409</v>
+        <v>1277</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38">
-        <v>2019</v>
-      </c>
-      <c r="H38" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I38" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>672</v>
+        <v>555</v>
       </c>
       <c r="D39">
-        <v>255</v>
+        <v>498</v>
       </c>
       <c r="E39">
-        <v>2609</v>
+        <v>2307</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39">
-        <v>2019</v>
-      </c>
-      <c r="H39" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I39" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="D40">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E40">
-        <v>2007</v>
+        <v>3841</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40">
-        <v>2019</v>
-      </c>
-      <c r="H40" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I40" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>650</v>
+        <v>1294</v>
       </c>
       <c r="D41">
-        <v>267</v>
+        <v>945</v>
       </c>
       <c r="E41">
-        <v>3775</v>
+        <v>9738</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41">
-        <v>2019</v>
-      </c>
-      <c r="H41" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I41" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>2380</v>
+        <v>79</v>
       </c>
       <c r="D42">
-        <v>1100</v>
+        <v>75</v>
       </c>
       <c r="E42">
-        <v>9469</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42">
-        <v>2019</v>
-      </c>
-      <c r="H42" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I42" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>19</v>
-      </c>
-      <c r="C43">
-        <v>374</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E43">
-        <v>115</v>
+        <v>1005</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1700,167 +1506,141 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>819</v>
+        <v>571</v>
       </c>
       <c r="D44">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="E44">
-        <v>2931</v>
+        <v>1461</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44">
-        <v>2019</v>
-      </c>
-      <c r="H44" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I44" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>663</v>
+        <v>371</v>
       </c>
       <c r="D45">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="E45">
-        <v>3091</v>
+        <v>2383</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45">
-        <v>2019</v>
-      </c>
-      <c r="H45" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I45" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="D46">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="E46">
-        <v>1540</v>
+        <v>3981</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="G46">
-        <v>2019</v>
-      </c>
-      <c r="H46" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I46" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>1280</v>
+        <v>1726</v>
       </c>
       <c r="D47">
-        <v>382</v>
+        <v>1225</v>
       </c>
       <c r="E47">
-        <v>4642</v>
+        <v>10281</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="G47">
-        <v>2019</v>
-      </c>
-      <c r="H47" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I47" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="B48">
-        <v>102</v>
-      </c>
       <c r="C48">
-        <v>3894</v>
+        <v>148</v>
       </c>
       <c r="D48">
-        <v>1192</v>
+        <v>112</v>
       </c>
       <c r="E48">
-        <v>12494</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
       </c>
       <c r="G48">
-        <v>2019</v>
-      </c>
-      <c r="H48" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I48" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>34</v>
-      </c>
-      <c r="C49">
-        <v>842</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="E49">
-        <v>176</v>
+        <v>912</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
       </c>
       <c r="G49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1868,167 +1648,141 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>836</v>
+        <v>293</v>
       </c>
       <c r="D50">
-        <v>347</v>
+        <v>184</v>
       </c>
       <c r="E50">
-        <v>3833</v>
+        <v>1454</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50">
-        <v>2019</v>
-      </c>
-      <c r="H50" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I50" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>1367</v>
+        <v>410</v>
       </c>
       <c r="D51">
-        <v>662</v>
+        <v>325</v>
       </c>
       <c r="E51">
-        <v>3945</v>
+        <v>2673</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51">
-        <v>2019</v>
-      </c>
-      <c r="H51" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I51" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C52">
-        <v>462</v>
+        <v>884</v>
       </c>
       <c r="D52">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="E52">
-        <v>1948</v>
+        <v>4078</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52">
-        <v>2019</v>
-      </c>
-      <c r="H52" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I52" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>2093</v>
+        <v>1961</v>
       </c>
       <c r="D53">
-        <v>814</v>
+        <v>2279</v>
       </c>
       <c r="E53">
-        <v>6040</v>
+        <v>10083</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53">
-        <v>2019</v>
-      </c>
-      <c r="H53" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I53" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>4809</v>
+        <v>363</v>
       </c>
       <c r="D54">
-        <v>3073</v>
+        <v>75</v>
       </c>
       <c r="E54">
-        <v>14861</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54">
-        <v>2019</v>
-      </c>
-      <c r="H54" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I54" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55">
-        <v>45</v>
-      </c>
-      <c r="C55">
-        <v>1170</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E55">
-        <v>126</v>
+        <v>927</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2036,167 +1790,141 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>775</v>
+        <v>204</v>
       </c>
       <c r="D56">
-        <v>498</v>
+        <v>168</v>
       </c>
       <c r="E56">
-        <v>4271</v>
+        <v>1408</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56">
-        <v>2019</v>
-      </c>
-      <c r="H56" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I56" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>1827</v>
+        <v>410</v>
       </c>
       <c r="D57">
-        <v>547</v>
+        <v>602</v>
       </c>
       <c r="E57">
-        <v>5331</v>
+        <v>2612</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="G57">
-        <v>2019</v>
-      </c>
-      <c r="H57" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I57" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C58">
-        <v>738</v>
+        <v>1891</v>
       </c>
       <c r="D58">
-        <v>574</v>
+        <v>679</v>
       </c>
       <c r="E58">
-        <v>2514</v>
+        <v>5252</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58">
-        <v>2019</v>
-      </c>
-      <c r="H58" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I58" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59">
-        <v>1496</v>
+        <v>1256</v>
       </c>
       <c r="D59">
-        <v>1112</v>
+        <v>1603</v>
       </c>
       <c r="E59">
-        <v>6458</v>
+        <v>9677</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
       <c r="G59">
-        <v>2019</v>
-      </c>
-      <c r="H59" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I59" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C60">
-        <v>3375</v>
+        <v>339</v>
       </c>
       <c r="D60">
-        <v>1743</v>
+        <v>67</v>
       </c>
       <c r="E60">
-        <v>17010</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60">
-        <v>2019</v>
-      </c>
-      <c r="H60" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I60" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>38</v>
-      </c>
-      <c r="C61">
-        <v>1040</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>484</v>
+        <v>104</v>
       </c>
       <c r="E61">
-        <v>259</v>
+        <v>1020</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2204,167 +1932,141 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>459</v>
+        <v>140</v>
       </c>
       <c r="D62">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="E62">
-        <v>4457</v>
+        <v>1234</v>
       </c>
       <c r="F62" t="s">
         <v>21</v>
       </c>
       <c r="G62">
-        <v>2019</v>
-      </c>
-      <c r="H62" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I62" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>1253</v>
+        <v>135</v>
       </c>
       <c r="D63">
-        <v>916</v>
+        <v>797</v>
       </c>
       <c r="E63">
-        <v>6067</v>
+        <v>1408</v>
       </c>
       <c r="F63" t="s">
         <v>21</v>
       </c>
       <c r="G63">
-        <v>2019</v>
-      </c>
-      <c r="H63" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I63" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C64">
-        <v>321</v>
+        <v>1045</v>
       </c>
       <c r="D64">
-        <v>784</v>
+        <v>1126</v>
       </c>
       <c r="E64">
-        <v>2672</v>
+        <v>4100</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
       </c>
       <c r="G64">
-        <v>2019</v>
-      </c>
-      <c r="H64" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I64" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>1698</v>
+        <v>448</v>
       </c>
       <c r="D65">
-        <v>549</v>
+        <v>1576</v>
       </c>
       <c r="E65">
-        <v>7741</v>
+        <v>7943</v>
       </c>
       <c r="F65" t="s">
         <v>21</v>
       </c>
       <c r="G65">
-        <v>2019</v>
-      </c>
-      <c r="H65" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I65" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>4130</v>
+        <v>300</v>
       </c>
       <c r="D66">
-        <v>2872</v>
+        <v>61</v>
       </c>
       <c r="E66">
-        <v>19080</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
       </c>
       <c r="G66">
-        <v>2019</v>
-      </c>
-      <c r="H66" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I66" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67">
-        <v>25</v>
-      </c>
-      <c r="C67">
-        <v>692</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>463</v>
+        <v>295</v>
       </c>
       <c r="E67">
-        <v>311</v>
+        <v>987</v>
       </c>
       <c r="F67" t="s">
         <v>21</v>
       </c>
       <c r="G67">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2372,167 +2074,141 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E68">
-        <v>4335</v>
+        <v>994</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
       </c>
       <c r="G68">
-        <v>2019</v>
-      </c>
-      <c r="H68" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I68" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C69">
-        <v>651</v>
+        <v>329</v>
       </c>
       <c r="D69">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="E69">
-        <v>6216</v>
+        <v>1519</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
       </c>
       <c r="G69">
-        <v>2019</v>
-      </c>
-      <c r="H69" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I69" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C70">
-        <v>382</v>
+        <v>1017</v>
       </c>
       <c r="D70">
-        <v>287</v>
+        <v>1090</v>
       </c>
       <c r="E70">
-        <v>2719</v>
+        <v>3936</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
       </c>
       <c r="G70">
-        <v>2019</v>
-      </c>
-      <c r="H70" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I70" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C71">
-        <v>838</v>
+        <v>1073</v>
       </c>
       <c r="D71">
-        <v>377</v>
+        <v>2119</v>
       </c>
       <c r="E71">
-        <v>7979</v>
+        <v>6950</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
       </c>
       <c r="G71">
-        <v>2019</v>
-      </c>
-      <c r="H71" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I71" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>2959</v>
+        <v>393</v>
       </c>
       <c r="D72">
-        <v>1349</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>20949</v>
+        <v>51</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
       </c>
       <c r="G72">
-        <v>2019</v>
-      </c>
-      <c r="H72" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I72" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73">
-        <v>13</v>
-      </c>
-      <c r="C73">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E73">
-        <v>228</v>
+        <v>1165</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
       </c>
       <c r="G73">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,499 +2216,457 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C74">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D74">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E74">
-        <v>991</v>
+        <v>1061</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
       </c>
       <c r="G74">
-        <v>2018</v>
-      </c>
-      <c r="H74" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I74" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="D75">
-        <v>556</v>
+        <v>348</v>
       </c>
       <c r="E75">
-        <v>1642</v>
+        <v>1717</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
       </c>
       <c r="G75">
-        <v>2018</v>
-      </c>
-      <c r="H75" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I75" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D76">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="E76">
-        <v>3935</v>
+        <v>1247</v>
       </c>
       <c r="F76" t="s">
         <v>11</v>
       </c>
       <c r="G76">
-        <v>2018</v>
-      </c>
-      <c r="H76" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I76" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C77">
-        <v>876</v>
+        <v>354</v>
       </c>
       <c r="D77">
-        <v>1510</v>
+        <v>347</v>
       </c>
       <c r="E77">
-        <v>6860</v>
+        <v>4068</v>
       </c>
       <c r="F77" t="s">
         <v>11</v>
       </c>
       <c r="G77">
-        <v>2018</v>
-      </c>
-      <c r="H77" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I77" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>670</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>1021</v>
       </c>
       <c r="E78">
-        <v>58</v>
+        <v>7119</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>1187</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
       </c>
       <c r="G79">
-        <v>2018</v>
-      </c>
-      <c r="H79" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I79" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E80">
-        <v>944</v>
+        <v>990</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
       <c r="G80">
-        <v>2018</v>
-      </c>
-      <c r="H80" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I80" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D81">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="E81">
-        <v>1640</v>
+        <v>1741</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
       </c>
       <c r="G81">
-        <v>2018</v>
-      </c>
-      <c r="H81" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I81" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="D82">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="E82">
-        <v>4238</v>
+        <v>1239</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82">
-        <v>2018</v>
-      </c>
-      <c r="H82" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I82" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D83">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="E83">
-        <v>7068</v>
+        <v>4295</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
       </c>
       <c r="G83">
-        <v>2018</v>
-      </c>
-      <c r="H83" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I83" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>61</v>
+        <v>791</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>839</v>
       </c>
       <c r="E84">
-        <v>66</v>
+        <v>7260</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>67</v>
+      </c>
+      <c r="D85">
         <v>2</v>
       </c>
-      <c r="D85">
-        <v>21</v>
-      </c>
       <c r="E85">
-        <v>1148</v>
+        <v>89</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
       <c r="G85">
-        <v>2018</v>
-      </c>
-      <c r="H85" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I85" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="E86">
-        <v>807</v>
+        <v>936</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
       </c>
       <c r="G86">
-        <v>2018</v>
-      </c>
-      <c r="H86" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I86" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D87">
-        <v>257</v>
+        <v>418</v>
       </c>
       <c r="E87">
-        <v>1548</v>
+        <v>1678</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
       </c>
       <c r="G87">
-        <v>2018</v>
-      </c>
-      <c r="H87" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I87" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>538</v>
+        <v>172</v>
       </c>
       <c r="D88">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="E88">
-        <v>4040</v>
+        <v>1213</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
       </c>
       <c r="G88">
-        <v>2018</v>
-      </c>
-      <c r="H88" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I88" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C89">
-        <v>1402</v>
+        <v>606</v>
       </c>
       <c r="D89">
-        <v>515</v>
+        <v>820</v>
       </c>
       <c r="E89">
-        <v>7105</v>
+        <v>4421</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
       </c>
       <c r="G89">
-        <v>2018</v>
-      </c>
-      <c r="H89" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I89" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C90">
-        <v>170</v>
+        <v>878</v>
       </c>
       <c r="D90">
-        <v>11</v>
+        <v>1175</v>
       </c>
       <c r="E90">
-        <v>71</v>
+        <v>7318</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
       </c>
       <c r="G90">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>76</v>
       </c>
       <c r="D91">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>1048</v>
+        <v>71</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
       </c>
       <c r="G91">
-        <v>2018</v>
-      </c>
-      <c r="H91" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I91" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C92">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="D92">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E92">
         <v>1650</v>
@@ -3041,1443 +2675,1317 @@
         <v>14</v>
       </c>
       <c r="G92">
-        <v>2018</v>
-      </c>
-      <c r="H92" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I92" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>553</v>
+        <v>237</v>
       </c>
       <c r="D93">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="E93">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
       </c>
       <c r="G93">
-        <v>2018</v>
-      </c>
-      <c r="H93" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I93" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94">
         <v>4</v>
       </c>
-      <c r="B94">
-        <v>10</v>
-      </c>
       <c r="C94">
-        <v>418</v>
+        <v>158</v>
       </c>
       <c r="D94">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E94">
-        <v>3377</v>
+        <v>1104</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94">
-        <v>2018</v>
-      </c>
-      <c r="H94" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I94" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C95">
-        <v>1835</v>
+        <v>496</v>
       </c>
       <c r="D95">
-        <v>1254</v>
+        <v>713</v>
       </c>
       <c r="E95">
-        <v>7012</v>
+        <v>3969</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
       </c>
       <c r="G95">
-        <v>2018</v>
-      </c>
-      <c r="H95" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I95" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C96">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="D96">
-        <v>16</v>
+        <v>759</v>
       </c>
       <c r="E96">
-        <v>57</v>
+        <v>7041</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
       <c r="G96">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>244</v>
+      </c>
+      <c r="D97">
         <v>2</v>
       </c>
-      <c r="D97">
-        <v>39</v>
-      </c>
       <c r="E97">
-        <v>1098</v>
+        <v>81</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
       </c>
       <c r="G97">
-        <v>2018</v>
-      </c>
-      <c r="H97" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I97" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C98">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="D98">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="E98">
-        <v>1135</v>
+        <v>1979</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
       </c>
       <c r="G98">
-        <v>2018</v>
-      </c>
-      <c r="H98" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I98" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C99">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="D99">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E99">
-        <v>1691</v>
+        <v>2042</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
       </c>
       <c r="G99">
-        <v>2018</v>
-      </c>
-      <c r="H99" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I99" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>386</v>
+        <v>217</v>
       </c>
       <c r="D100">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="E100">
-        <v>3358</v>
+        <v>1264</v>
       </c>
       <c r="F100" t="s">
         <v>15</v>
       </c>
       <c r="G100">
-        <v>2018</v>
-      </c>
-      <c r="H100" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I100" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C101">
-        <v>1564</v>
+        <v>824</v>
       </c>
       <c r="D101">
-        <v>961</v>
+        <v>412</v>
       </c>
       <c r="E101">
-        <v>9336</v>
+        <v>3587</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
       </c>
       <c r="G101">
-        <v>2018</v>
-      </c>
-      <c r="H101" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I101" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>272</v>
+        <v>504</v>
       </c>
       <c r="D102">
-        <v>31</v>
+        <v>1184</v>
       </c>
       <c r="E102">
-        <v>153</v>
+        <v>7037</v>
       </c>
       <c r="F102" t="s">
         <v>15</v>
       </c>
       <c r="G102">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103">
+        <v>318</v>
       </c>
       <c r="D103">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E103">
-        <v>1016</v>
+        <v>116</v>
       </c>
       <c r="F103" t="s">
         <v>15</v>
       </c>
       <c r="G103">
-        <v>2018</v>
-      </c>
-      <c r="H103" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I103" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
       <c r="B104">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C104">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="D104">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E104">
-        <v>1173</v>
+        <v>2123</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104">
-        <v>2018</v>
-      </c>
-      <c r="H104" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I104" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
       <c r="B105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C105">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="D105">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="E105">
-        <v>1940</v>
+        <v>2200</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105">
-        <v>2018</v>
-      </c>
-      <c r="H105" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I105" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C106">
-        <v>822</v>
+        <v>256</v>
       </c>
       <c r="D106">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="E106">
-        <v>3836</v>
+        <v>1366</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106">
-        <v>2018</v>
-      </c>
-      <c r="H106" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I106" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C107">
-        <v>1039</v>
+        <v>465</v>
       </c>
       <c r="D107">
-        <v>840</v>
+        <v>272</v>
       </c>
       <c r="E107">
-        <v>9460</v>
+        <v>3918</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107">
-        <v>2018</v>
-      </c>
-      <c r="H107" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I107" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C108">
-        <v>150</v>
+        <v>1622</v>
       </c>
       <c r="D108">
-        <v>71</v>
+        <v>750</v>
       </c>
       <c r="E108">
-        <v>108</v>
+        <v>7909</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>189</v>
       </c>
       <c r="D109">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E109">
-        <v>1042</v>
+        <v>94</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109">
-        <v>2018</v>
-      </c>
-      <c r="H109" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I109" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C110">
-        <v>390</v>
+        <v>599</v>
       </c>
       <c r="D110">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E110">
-        <v>1277</v>
+        <v>2409</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
       </c>
       <c r="G110">
-        <v>2018</v>
-      </c>
-      <c r="H110" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I110" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C111">
-        <v>555</v>
+        <v>672</v>
       </c>
       <c r="D111">
-        <v>498</v>
+        <v>255</v>
       </c>
       <c r="E111">
-        <v>2307</v>
+        <v>2609</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
       </c>
       <c r="G111">
-        <v>2018</v>
-      </c>
-      <c r="H111" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I111" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C112">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="D112">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E112">
-        <v>3841</v>
+        <v>2007</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112">
-        <v>2018</v>
-      </c>
-      <c r="H112" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I112" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B113">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>1294</v>
+        <v>650</v>
       </c>
       <c r="D113">
-        <v>945</v>
+        <v>267</v>
       </c>
       <c r="E113">
-        <v>9738</v>
+        <v>3775</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
       </c>
       <c r="G113">
-        <v>2018</v>
-      </c>
-      <c r="H113" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I113" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C114">
-        <v>79</v>
+        <v>2380</v>
       </c>
       <c r="D114">
-        <v>75</v>
+        <v>1100</v>
       </c>
       <c r="E114">
-        <v>116</v>
+        <v>9469</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>19</v>
+      </c>
+      <c r="C115">
+        <v>374</v>
       </c>
       <c r="D115">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E115">
-        <v>1005</v>
+        <v>115</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
       </c>
       <c r="G115">
-        <v>2018</v>
-      </c>
-      <c r="H115" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I115" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
       <c r="B116">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C116">
-        <v>571</v>
+        <v>819</v>
       </c>
       <c r="D116">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="E116">
-        <v>1461</v>
+        <v>2931</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
       </c>
       <c r="G116">
-        <v>2018</v>
-      </c>
-      <c r="H116" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I116" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C117">
-        <v>371</v>
+        <v>663</v>
       </c>
       <c r="D117">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="E117">
-        <v>2383</v>
+        <v>3091</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="G117">
-        <v>2018</v>
-      </c>
-      <c r="H117" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I117" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C118">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="D118">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="E118">
-        <v>3981</v>
+        <v>1540</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="G118">
-        <v>2018</v>
-      </c>
-      <c r="H118" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I118" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B119">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C119">
-        <v>1726</v>
+        <v>1280</v>
       </c>
       <c r="D119">
-        <v>1225</v>
+        <v>382</v>
       </c>
       <c r="E119">
-        <v>10281</v>
+        <v>4642</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
       </c>
       <c r="G119">
-        <v>2018</v>
-      </c>
-      <c r="H119" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I119" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C120">
-        <v>148</v>
+        <v>3894</v>
       </c>
       <c r="D120">
-        <v>112</v>
+        <v>1192</v>
       </c>
       <c r="E120">
-        <v>93</v>
+        <v>12494</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
       </c>
       <c r="G120">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>34</v>
+      </c>
+      <c r="C121">
+        <v>842</v>
       </c>
       <c r="D121">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="E121">
-        <v>912</v>
+        <v>176</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
       </c>
       <c r="G121">
-        <v>2018</v>
-      </c>
-      <c r="H121" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I121" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
       <c r="B122">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C122">
-        <v>293</v>
+        <v>836</v>
       </c>
       <c r="D122">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="E122">
-        <v>1454</v>
+        <v>3833</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122">
-        <v>2018</v>
-      </c>
-      <c r="H122" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I122" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C123">
-        <v>410</v>
+        <v>1367</v>
       </c>
       <c r="D123">
-        <v>325</v>
+        <v>662</v>
       </c>
       <c r="E123">
-        <v>2673</v>
+        <v>3945</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123">
-        <v>2018</v>
-      </c>
-      <c r="H123" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I123" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>884</v>
+        <v>462</v>
       </c>
       <c r="D124">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="E124">
-        <v>4078</v>
+        <v>1948</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124">
-        <v>2018</v>
-      </c>
-      <c r="H124" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I124" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C125">
-        <v>1961</v>
+        <v>2093</v>
       </c>
       <c r="D125">
-        <v>2279</v>
+        <v>814</v>
       </c>
       <c r="E125">
-        <v>10083</v>
+        <v>6040</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
       </c>
       <c r="G125">
-        <v>2018</v>
-      </c>
-      <c r="H125" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I125" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B126">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C126">
-        <v>363</v>
+        <v>4809</v>
       </c>
       <c r="D126">
-        <v>75</v>
+        <v>3073</v>
       </c>
       <c r="E126">
-        <v>113</v>
+        <v>14861</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
       </c>
       <c r="G126">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>45</v>
+      </c>
+      <c r="C127">
+        <v>1170</v>
       </c>
       <c r="D127">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E127">
-        <v>927</v>
+        <v>126</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
       </c>
       <c r="G127">
-        <v>2018</v>
-      </c>
-      <c r="H127" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I127" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
       <c r="B128">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C128">
-        <v>204</v>
+        <v>775</v>
       </c>
       <c r="D128">
-        <v>168</v>
+        <v>498</v>
       </c>
       <c r="E128">
-        <v>1408</v>
+        <v>4271</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
       </c>
       <c r="G128">
-        <v>2018</v>
-      </c>
-      <c r="H128" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I128" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
       <c r="B129">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C129">
-        <v>410</v>
+        <v>1827</v>
       </c>
       <c r="D129">
-        <v>602</v>
+        <v>547</v>
       </c>
       <c r="E129">
-        <v>2612</v>
+        <v>5331</v>
       </c>
       <c r="F129" t="s">
         <v>20</v>
       </c>
       <c r="G129">
-        <v>2018</v>
-      </c>
-      <c r="H129" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I129" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B130">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>1891</v>
+        <v>738</v>
       </c>
       <c r="D130">
-        <v>679</v>
+        <v>574</v>
       </c>
       <c r="E130">
-        <v>5252</v>
+        <v>2514</v>
       </c>
       <c r="F130" t="s">
         <v>20</v>
       </c>
       <c r="G130">
-        <v>2018</v>
-      </c>
-      <c r="H130" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I130" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C131">
-        <v>1256</v>
+        <v>1496</v>
       </c>
       <c r="D131">
-        <v>1603</v>
+        <v>1112</v>
       </c>
       <c r="E131">
-        <v>9677</v>
+        <v>6458</v>
       </c>
       <c r="F131" t="s">
         <v>20</v>
       </c>
       <c r="G131">
-        <v>2018</v>
-      </c>
-      <c r="H131" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I131" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B132">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C132">
-        <v>339</v>
+        <v>3375</v>
       </c>
       <c r="D132">
-        <v>67</v>
+        <v>1743</v>
       </c>
       <c r="E132">
-        <v>113</v>
+        <v>17010</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
       </c>
       <c r="G132">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>38</v>
+      </c>
+      <c r="C133">
+        <v>1040</v>
       </c>
       <c r="D133">
-        <v>104</v>
+        <v>484</v>
       </c>
       <c r="E133">
-        <v>1020</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
       </c>
       <c r="G133">
-        <v>2018</v>
-      </c>
-      <c r="H133" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I133" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
       <c r="B134">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C134">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="D134">
-        <v>187</v>
+        <v>380</v>
       </c>
       <c r="E134">
-        <v>1234</v>
+        <v>4457</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
       </c>
       <c r="G134">
-        <v>2018</v>
-      </c>
-      <c r="H134" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I134" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C135">
-        <v>135</v>
+        <v>1253</v>
       </c>
       <c r="D135">
-        <v>797</v>
+        <v>916</v>
       </c>
       <c r="E135">
-        <v>1408</v>
+        <v>6067</v>
       </c>
       <c r="F135" t="s">
         <v>21</v>
       </c>
       <c r="G135">
-        <v>2018</v>
-      </c>
-      <c r="H135" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I135" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B136">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C136">
-        <v>1045</v>
+        <v>321</v>
       </c>
       <c r="D136">
-        <v>1126</v>
+        <v>784</v>
       </c>
       <c r="E136">
-        <v>4100</v>
+        <v>2672</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
       </c>
       <c r="G136">
-        <v>2018</v>
-      </c>
-      <c r="H136" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I136" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C137">
-        <v>448</v>
+        <v>1698</v>
       </c>
       <c r="D137">
-        <v>1576</v>
+        <v>549</v>
       </c>
       <c r="E137">
-        <v>7943</v>
+        <v>7741</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
       </c>
       <c r="G137">
-        <v>2018</v>
-      </c>
-      <c r="H137" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I137" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B138">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C138">
-        <v>300</v>
+        <v>4130</v>
       </c>
       <c r="D138">
-        <v>61</v>
+        <v>2872</v>
       </c>
       <c r="E138">
-        <v>79</v>
+        <v>19080</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
       </c>
       <c r="G138">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B139">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>692</v>
       </c>
       <c r="D139">
-        <v>295</v>
+        <v>463</v>
       </c>
       <c r="E139">
-        <v>987</v>
+        <v>311</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
       </c>
       <c r="G139">
-        <v>2018</v>
-      </c>
-      <c r="H139" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I139" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="D140">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E140">
-        <v>994</v>
+        <v>4335</v>
       </c>
       <c r="F140" t="s">
         <v>22</v>
       </c>
       <c r="G140">
-        <v>2018</v>
-      </c>
-      <c r="H140" s="1">
-        <v>36.893300000000004</v>
-      </c>
-      <c r="I140" s="1">
-        <v>27.288799999999998</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C141">
-        <v>329</v>
+        <v>651</v>
       </c>
       <c r="D141">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="E141">
-        <v>1519</v>
+        <v>6216</v>
       </c>
       <c r="F141" t="s">
         <v>22</v>
       </c>
       <c r="G141">
-        <v>2018</v>
-      </c>
-      <c r="H141" s="1">
-        <v>38.367800000000003</v>
-      </c>
-      <c r="I141" s="1">
-        <v>26.1358</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B142">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C142">
-        <v>1017</v>
+        <v>382</v>
       </c>
       <c r="D142">
-        <v>1090</v>
+        <v>287</v>
       </c>
       <c r="E142">
-        <v>3936</v>
+        <v>2719</v>
       </c>
       <c r="F142" t="s">
         <v>22</v>
       </c>
       <c r="G142">
-        <v>2018</v>
-      </c>
-      <c r="H142" s="1">
-        <v>37.7333</v>
-      </c>
-      <c r="I142" s="1">
-        <v>26.833300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C143">
-        <v>1073</v>
+        <v>838</v>
       </c>
       <c r="D143">
-        <v>2119</v>
+        <v>377</v>
       </c>
       <c r="E143">
-        <v>6950</v>
+        <v>7979</v>
       </c>
       <c r="F143" t="s">
         <v>22</v>
       </c>
       <c r="G143">
-        <v>2018</v>
-      </c>
-      <c r="H143" s="1">
-        <v>39.166699999999999</v>
-      </c>
-      <c r="I143" s="1">
-        <v>26.333300000000001</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C144">
-        <v>393</v>
+        <v>2959</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>1349</v>
       </c>
       <c r="E144">
-        <v>51</v>
+        <v>20949</v>
       </c>
       <c r="F144" t="s">
         <v>22</v>
       </c>
       <c r="G144">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>13</v>
+      </c>
+      <c r="C145">
+        <v>270</v>
       </c>
       <c r="D145">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="E145">
-        <v>1165</v>
+        <v>228</v>
       </c>
       <c r="F145" t="s">
         <v>22</v>
       </c>
       <c r="G145">
-        <v>2018</v>
-      </c>
-      <c r="H145" s="1">
-        <v>37.149900000000002</v>
-      </c>
-      <c r="I145" s="1">
-        <v>26.849900000000002</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
